--- a/data/MonsterInfo.xlsx
+++ b/data/MonsterInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7380"/>
+    <workbookView windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,12 +53,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,91 +74,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,7 +111,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,9 +140,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,9 +171,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,19 +232,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,157 +364,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,17 +435,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,30 +464,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,11 +488,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,153 +517,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -748,6 +741,12 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1032,17 +1031,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1097,7 +1095,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1111,7 +1109,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -1125,7 +1123,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -1139,7 +1137,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>10</v>
@@ -1153,7 +1151,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
         <v>15</v>
@@ -1167,7 +1165,7 @@
         <v>100</v>
       </c>
       <c r="C9" s="1">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -1181,7 +1179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1198,7 +1196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
